--- a/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.504392750758431</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3394207594180942</v>
+        <v>0.3394207594180941</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4517229072972082</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3850223973154689</v>
+        <v>0.3825590653813306</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4485507102152599</v>
+        <v>0.4443446394536044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3998568687158981</v>
+        <v>0.3989139216847324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2736130816378285</v>
+        <v>0.2779857536022372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4288327267629576</v>
+        <v>0.4250405911875509</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4449460755289117</v>
+        <v>0.456764657170408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4507557654438243</v>
+        <v>0.4507091809142985</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3038257681958357</v>
+        <v>0.3031247042231471</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4186598079682813</v>
+        <v>0.417899719139602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4653357112596845</v>
+        <v>0.4648910779008333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4368666933469031</v>
+        <v>0.4358370193482205</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3010563847849035</v>
+        <v>0.2967136738182308</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4761978270884941</v>
+        <v>0.4800959722889907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5444003472735818</v>
+        <v>0.5483352004978329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4986099464108342</v>
+        <v>0.4946489687642999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3547323558695566</v>
+        <v>0.3574129430327833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.542407061358397</v>
+        <v>0.548803351090173</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5696631254584446</v>
+        <v>0.564772686509177</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5577302644018175</v>
+        <v>0.5627693582287305</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3771372216753591</v>
+        <v>0.3759391569000797</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4909546910718822</v>
+        <v>0.4900111799744234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5445934473567681</v>
+        <v>0.5417493719164899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5095287646584989</v>
+        <v>0.5092174262804667</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.354993055464523</v>
+        <v>0.3568797800228035</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.484105318375409</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.306002150078089</v>
+        <v>0.3060021500780891</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3884464312318335</v>
+        <v>0.3835978656020646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4691121400700142</v>
+        <v>0.468905137633444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4200518712277556</v>
+        <v>0.4223957984086631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2747758913931312</v>
+        <v>0.2683753778421505</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.470674455645772</v>
+        <v>0.4789933318279271</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.564215370101732</v>
+        <v>0.5493209183547632</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4437517596092863</v>
+        <v>0.4456899851882751</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2622026699640932</v>
+        <v>0.2614011071806452</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4404539359848021</v>
+        <v>0.4477685242193557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5195306898094566</v>
+        <v>0.526569844029352</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4488246057839601</v>
+        <v>0.4451837023713567</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.276728068919936</v>
+        <v>0.2755599163623982</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4954198934189021</v>
+        <v>0.4928599428266691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5739076735302469</v>
+        <v>0.5769743394151906</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.528426551391475</v>
+        <v>0.5273403296942496</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3625983412243515</v>
+        <v>0.3569076643888755</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5757938102692276</v>
+        <v>0.5788283283267147</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.664153728322185</v>
+        <v>0.6660496822436156</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5460551719592924</v>
+        <v>0.5492943617572799</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3363179376590137</v>
+        <v>0.3360329339076262</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5165897208647005</v>
+        <v>0.5194840717701315</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5968785193768238</v>
+        <v>0.6020256031419345</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5242259400358625</v>
+        <v>0.5248700825937803</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3343752359415325</v>
+        <v>0.3328758213540606</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4078370450520846</v>
+        <v>0.4105987516034888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5285736745846639</v>
+        <v>0.5314166839425652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5092752087473588</v>
+        <v>0.510463193142885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2660961627363075</v>
+        <v>0.2643151026115693</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4872674657264587</v>
+        <v>0.4845063004575847</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6367732112141807</v>
+        <v>0.642835810733102</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5869314274012198</v>
+        <v>0.5839268652135824</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3798544010383473</v>
+        <v>0.3777246869769955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4382140930834904</v>
+        <v>0.43942903686343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5756855212046056</v>
+        <v>0.5750818185463107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5424983292164396</v>
+        <v>0.5368945610397519</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3101145743654367</v>
+        <v>0.3105001347720323</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4934509734429221</v>
+        <v>0.4939508831263997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6152926966312723</v>
+        <v>0.6119627968135183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5955687856756815</v>
+        <v>0.5961863174154317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3484717727057052</v>
+        <v>0.3486269714215415</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6397043776542074</v>
+        <v>0.6349634374051394</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7566502413724604</v>
+        <v>0.7564653712423135</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7388990278035699</v>
+        <v>0.7347695002772079</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5014230405236251</v>
+        <v>0.5014412652006441</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5115739374056184</v>
+        <v>0.5201520229447749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6420606046866293</v>
+        <v>0.6434479951276436</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6210823755509403</v>
+        <v>0.6140562608807114</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3771685375254458</v>
+        <v>0.3773644747077761</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4576362452865794</v>
+        <v>0.4570643350931871</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5404673253810081</v>
+        <v>0.541470637587749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4995970370142978</v>
+        <v>0.4969809219372209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3280729660654007</v>
+        <v>0.327190758775422</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5590274933975062</v>
+        <v>0.5574777076254577</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5897627117003325</v>
+        <v>0.5952227962654165</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4986599012246138</v>
+        <v>0.4998929645103306</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3380263206957494</v>
+        <v>0.3381454353387371</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5011356290645024</v>
+        <v>0.5036139506994823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5727526377616334</v>
+        <v>0.5724966951400413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5100411105342858</v>
+        <v>0.5090295880168922</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3389890227036477</v>
+        <v>0.3400039093922869</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5171092002774174</v>
+        <v>0.5132003327010504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6000875728859951</v>
+        <v>0.6026397830411853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5600968737132822</v>
+        <v>0.5594474952983667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3887785750986419</v>
+        <v>0.3882928909690018</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6287476653494958</v>
+        <v>0.6330209177552094</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6657770946903669</v>
+        <v>0.6652658230957456</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5691940065473228</v>
+        <v>0.5684792193378649</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3931555981444239</v>
+        <v>0.3944842387328809</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5480590440773188</v>
+        <v>0.5486992016696189</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6167951215289659</v>
+        <v>0.6183960712186396</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5537190015898728</v>
+        <v>0.553178658374875</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3807556836338006</v>
+        <v>0.3820029174098744</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4214845495435462</v>
+        <v>0.4314556986698976</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5168947001484352</v>
+        <v>0.5192112075113509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4835462558255567</v>
+        <v>0.4875828466370764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3048432353570074</v>
+        <v>0.3018467586175251</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5680154616255738</v>
+        <v>0.563752889799542</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6991743930088659</v>
+        <v>0.7007972335833973</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6624606561345903</v>
+        <v>0.665694929694574</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4384656511367431</v>
+        <v>0.4376329245424863</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5256751920010422</v>
+        <v>0.5254170262220687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6367932833571273</v>
+        <v>0.6403421559396916</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5936039293992156</v>
+        <v>0.5949755275706937</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3927820869050613</v>
+        <v>0.3939088395710999</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5346621661571751</v>
+        <v>0.539184953632635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6071986069763666</v>
+        <v>0.6077148310679098</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5648393671786621</v>
+        <v>0.5723607838209502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3927556965920016</v>
+        <v>0.3881288757377352</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6492696306780941</v>
+        <v>0.6480327676172414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7647887195155938</v>
+        <v>0.7666349417148614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7301864833831715</v>
+        <v>0.7335423628562465</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4955114757681493</v>
+        <v>0.5016331978309513</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5918812009734905</v>
+        <v>0.5918554553254703</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.692292078103947</v>
+        <v>0.6950253180866323</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6464205719773927</v>
+        <v>0.6466495952595573</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.44171898800152</v>
+        <v>0.4416077107696096</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6768406116331031</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4402894820055111</v>
+        <v>0.4402894820055112</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5832148585961643</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1901496607208895</v>
+        <v>0.1910103351244221</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3105293816773294</v>
+        <v>0.3145493581023689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.265021146608631</v>
+        <v>0.2673364061636324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1435223766650886</v>
+        <v>0.1464381224829387</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6394975851002206</v>
+        <v>0.6387110404911885</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.701828024898168</v>
+        <v>0.6969277108006278</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6450113020066216</v>
+        <v>0.6492727423683051</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.406982883911321</v>
+        <v>0.4098246784818705</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5603245511514324</v>
+        <v>0.5559511219090812</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6301282923785966</v>
+        <v>0.6317928724467259</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5756672353078272</v>
+        <v>0.5730393904797738</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3604193680689586</v>
+        <v>0.3572217056732317</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2895078251800938</v>
+        <v>0.2857322747398119</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4314959099274374</v>
+        <v>0.4355430181365604</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3757855290833578</v>
+        <v>0.3741249000236736</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3162738079339757</v>
+        <v>0.3090225870756373</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6917704821046762</v>
+        <v>0.6908514751530622</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7539035438618905</v>
+        <v>0.7521343982613952</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7034186465646665</v>
+        <v>0.7073308213657911</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4710011701408688</v>
+        <v>0.4759517460628684</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6106095941142514</v>
+        <v>0.6079004443311293</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.682569516621482</v>
+        <v>0.6835185584988842</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6272772219439908</v>
+        <v>0.628706954510463</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4241052876228557</v>
+        <v>0.4225104169169742</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6119145397577996</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3983436126463268</v>
+        <v>0.3983436126463269</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5252231872399776</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4267892757189154</v>
+        <v>0.4269588507709373</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5206212020844393</v>
+        <v>0.5208071358250331</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4813880262531081</v>
+        <v>0.4808280201223241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3083779392362141</v>
+        <v>0.309877499167699</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5867755023598927</v>
+        <v>0.5880681676737648</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6602673951046265</v>
+        <v>0.6594994431559515</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5935032214679943</v>
+        <v>0.5970096508775051</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3847681142434786</v>
+        <v>0.3825298759631714</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5129996460084435</v>
+        <v>0.5130863803955058</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.59629274587465</v>
+        <v>0.5969300576506001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5444266506302822</v>
+        <v>0.5442503113379829</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3523475420270299</v>
+        <v>0.3523504485503089</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4604576946703254</v>
+        <v>0.4621164433115708</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.556680963533964</v>
+        <v>0.5572699784195928</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5148372632946236</v>
+        <v>0.5153200967947505</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3416968363035878</v>
+        <v>0.3438884697273861</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6205244214721637</v>
+        <v>0.6198891092104025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.690576142556483</v>
+        <v>0.6928162349635854</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6290505401689723</v>
+        <v>0.6293260931290309</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4116590769438114</v>
+        <v>0.4125232413571716</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5376249074012093</v>
+        <v>0.5372141606354236</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6199053985173395</v>
+        <v>0.6206298567505054</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5684520645988892</v>
+        <v>0.5692947427880033</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3739954124678698</v>
+        <v>0.3747734115594703</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>182414</v>
+        <v>181247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>196111</v>
+        <v>194272</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>171575</v>
+        <v>171171</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>150656</v>
+        <v>153064</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>131514</v>
+        <v>130351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>139915</v>
+        <v>143631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>156437</v>
+        <v>156421</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>148392</v>
+        <v>148049</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>326746</v>
+        <v>326153</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>349777</v>
+        <v>349442</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>339073</v>
+        <v>338274</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>312806</v>
+        <v>308294</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>225611</v>
+        <v>227458</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>238018</v>
+        <v>239738</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>213950</v>
+        <v>212250</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>195322</v>
+        <v>196798</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>166345</v>
+        <v>168307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>179133</v>
+        <v>177595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>193563</v>
+        <v>195312</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>184198</v>
+        <v>183613</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>383169</v>
+        <v>382433</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>409352</v>
+        <v>407214</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>395469</v>
+        <v>395228</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>368848</v>
+        <v>370808</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>142534</v>
+        <v>140755</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>196463</v>
+        <v>196376</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>158455</v>
+        <v>159339</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>132775</v>
+        <v>129682</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>175027</v>
+        <v>178121</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>190711</v>
+        <v>185677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>165197</v>
+        <v>165918</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110949</v>
+        <v>110610</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>325407</v>
+        <v>330811</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>393185</v>
+        <v>398512</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>336394</v>
+        <v>333665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>250814</v>
+        <v>249755</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>181786</v>
+        <v>180847</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>240351</v>
+        <v>241635</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>199337</v>
+        <v>198927</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>175212</v>
+        <v>172462</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>214118</v>
+        <v>215246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>224491</v>
+        <v>225132</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>203282</v>
+        <v>204487</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>142311</v>
+        <v>142190</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>381656</v>
+        <v>383794</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>451722</v>
+        <v>455618</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>392907</v>
+        <v>393390</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>303063</v>
+        <v>301704</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>221206</v>
+        <v>222704</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>332692</v>
+        <v>334482</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>265798</v>
+        <v>266418</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>125494</v>
+        <v>124654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>81755</v>
+        <v>81291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>165643</v>
+        <v>167220</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>97503</v>
+        <v>97004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>71222</v>
+        <v>70822</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>311207</v>
+        <v>312070</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>512098</v>
+        <v>511561</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>373258</v>
+        <v>369403</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>204399</v>
+        <v>204653</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>267642</v>
+        <v>267914</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>387274</v>
+        <v>385179</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>310836</v>
+        <v>311158</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>164343</v>
+        <v>164417</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>107331</v>
+        <v>106535</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>196827</v>
+        <v>196779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122748</v>
+        <v>122062</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>94015</v>
+        <v>94019</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>363305</v>
+        <v>369397</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>571141</v>
+        <v>572375</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>427327</v>
+        <v>422493</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>248595</v>
+        <v>248724</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>566707</v>
+        <v>565998</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>626406</v>
+        <v>627569</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>574356</v>
+        <v>571348</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>371327</v>
+        <v>370329</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>399305</v>
+        <v>398198</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>452146</v>
+        <v>456332</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>411831</v>
+        <v>412850</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>291112</v>
+        <v>291215</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>978527</v>
+        <v>983367</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1102931</v>
+        <v>1102438</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1007593</v>
+        <v>1005595</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>675623</v>
+        <v>677646</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>640354</v>
+        <v>635513</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>695507</v>
+        <v>698465</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>643909</v>
+        <v>643162</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>440036</v>
+        <v>439487</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>449105</v>
+        <v>452157</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>510423</v>
+        <v>510031</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>470084</v>
+        <v>469493</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>338590</v>
+        <v>339734</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1070151</v>
+        <v>1071401</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1187742</v>
+        <v>1190825</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1093880</v>
+        <v>1092812</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>758867</v>
+        <v>761352</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>147754</v>
+        <v>151249</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>263924</v>
+        <v>265107</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>300140</v>
+        <v>302646</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>173140</v>
+        <v>171438</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>323060</v>
+        <v>320636</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>532437</v>
+        <v>533673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>489058</v>
+        <v>491445</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>364299</v>
+        <v>363607</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>483257</v>
+        <v>483020</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>810076</v>
+        <v>814591</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>806678</v>
+        <v>808542</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>549429</v>
+        <v>551005</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187428</v>
+        <v>189014</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>310033</v>
+        <v>310297</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>350599</v>
+        <v>355268</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>223071</v>
+        <v>220443</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>369273</v>
+        <v>368570</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>582403</v>
+        <v>583809</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>539056</v>
+        <v>541533</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>411696</v>
+        <v>416782</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>544121</v>
+        <v>544097</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>880677</v>
+        <v>884154</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>878453</v>
+        <v>878764</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>617883</v>
+        <v>617727</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56703</v>
+        <v>56959</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>82875</v>
+        <v>83948</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>76099</v>
+        <v>76764</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>34048</v>
+        <v>34739</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>798579</v>
+        <v>797597</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>778574</v>
+        <v>773137</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>697918</v>
+        <v>702529</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>343608</v>
+        <v>346007</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>866800</v>
+        <v>860034</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>867203</v>
+        <v>869494</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>788186</v>
+        <v>784588</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>389797</v>
+        <v>386338</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>86332</v>
+        <v>85206</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>115158</v>
+        <v>116239</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>107905</v>
+        <v>107428</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>75029</v>
+        <v>73309</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>863855</v>
+        <v>862708</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>836344</v>
+        <v>834381</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>761117</v>
+        <v>765350</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>397657</v>
+        <v>401837</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>944589</v>
+        <v>940398</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>939375</v>
+        <v>940681</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>858849</v>
+        <v>860807</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>458674</v>
+        <v>456949</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1395682</v>
+        <v>1396237</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1781519</v>
+        <v>1782155</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1629846</v>
+        <v>1627950</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1061584</v>
+        <v>1066746</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1982200</v>
+        <v>1986567</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2344032</v>
+        <v>2341305</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2096014</v>
+        <v>2108397</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1398783</v>
+        <v>1390646</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3410583</v>
+        <v>3411159</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4157374</v>
+        <v>4161817</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3765972</v>
+        <v>3764752</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2493870</v>
+        <v>2493890</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1505784</v>
+        <v>1511209</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1904912</v>
+        <v>1906928</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1743096</v>
+        <v>1744731</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1176283</v>
+        <v>1183828</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2096208</v>
+        <v>2094062</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2451632</v>
+        <v>2459584</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2221552</v>
+        <v>2222526</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1496543</v>
+        <v>1499684</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3574299</v>
+        <v>3571568</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4322002</v>
+        <v>4327053</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3932164</v>
+        <v>3937993</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2647091</v>
+        <v>2652597</v>
       </c>
     </row>
     <row r="32">
